--- a/LabSignup/LabSignup/bin/Debug/Student-Lab-SignUp-Sheet-4-15-2023.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/Student-Lab-SignUp-Sheet-4-15-2023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -32,10 +32,10 @@
     <t>LabEnd</t>
   </si>
   <si>
-    <t>Justin</t>
+    <t>test</t>
   </si>
   <si>
-    <t>Keating</t>
+    <t>est</t>
   </si>
   <si>
     <t>Needle Demo</t>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>4:00PM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
